--- a/biology/Botanique/Tinantia/Tinantia.xlsx
+++ b/biology/Botanique/Tinantia/Tinantia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tinantia sont des plantes monocotylédones de la famille des Commelinacées. C'est un genre regroupant des plantes herbacées venant d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Tinantia sont des plantes annuelles, dressées, aux feuilles engainantes.
 Les inflorescences, terminales, sont des cymes unipares uniques ou en grappe double.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces sont originaires d'Amérique tropicale, du nord de l'Amérique du Sud au Mexique, y compris les Caraïbes.
 L'usage ornemental de quelques espèces a largement répandu le genre à l'ensemble des pays à climat tempéré ou tempéré chaud.
@@ -577,7 +593,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (The International Plant Names Index), du jardin botanique du Missouri (Tropicos) et The Plant List à la date d'octobre 2012, avec une recherche bibliographique sur la bibliothèque numérique Biodiversity Heritage Library. Les espèces conservées dans le genre sont mises en caractères gras :
 Tinantia anomala (Torr.) C.B.Clarke (1881) - synonymes : Commelina anomala (Torr.) Woodson, Commelinantia anomala (Torr.) Tharp, Tradescantia anomala Torr.
@@ -631,11 +649,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1829, Barthélemy Charles Joseph Du Mortier nomme un genre Tinantia dans la famille des Iridacées (la tribu à laquelle il rattache le genre est nommée par lui Moraceae en référence au genre Moraea) : il s'agit d'un nom nu, sans aucune description ni exemplaire ou espèce rattaché, qui a été déclaré invalide[1]. Il constitue néanmoins un homonyme, bien qu'antérieur.
-En 1836, Constantine Samuel Rafinesque décrit le genre Pogomesia sur la base de Tradescantia undata (i.e. Tinantia erecta (Jacq.) Fenzl)[2]. Le nom de genre n'a pas été accepté : il est donc synonyme de Tinantia.
-En 1839, Michael Joseph François Scheidweiler décrit une nouvelle fois le genre avec comme espèce type Tinantia fugax, aussi synonyme de Tinantia erecta[3]. Il dédie le genre, comme Barthélemy Charles Joseph Du Mortier, à François-Auguste Tinant, botaniste luxembourgeois.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1829, Barthélemy Charles Joseph Du Mortier nomme un genre Tinantia dans la famille des Iridacées (la tribu à laquelle il rattache le genre est nommée par lui Moraceae en référence au genre Moraea) : il s'agit d'un nom nu, sans aucune description ni exemplaire ou espèce rattaché, qui a été déclaré invalide. Il constitue néanmoins un homonyme, bien qu'antérieur.
+En 1836, Constantine Samuel Rafinesque décrit le genre Pogomesia sur la base de Tradescantia undata (i.e. Tinantia erecta (Jacq.) Fenzl). Le nom de genre n'a pas été accepté : il est donc synonyme de Tinantia.
+En 1839, Michael Joseph François Scheidweiler décrit une nouvelle fois le genre avec comme espèce type Tinantia fugax, aussi synonyme de Tinantia erecta. Il dédie le genre, comme Barthélemy Charles Joseph Du Mortier, à François-Auguste Tinant, botaniste luxembourgeois.
 Un autre genre homonyme de la famille des Nyctaginacées a été décrit en 1844 par Martin Martens et Henri Guillaume Galeotti.
 Les études phylogénétiques récentes placent ce genre dans la sous-tribu des Thyrsantheminae de la tribu des Trandescantieae (avec une révision de cette sous-tribu) : les genres les plus proches sont Thyrsanthemum et Weldenia (textes en référence).
 </t>
